--- a/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
+++ b/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,22 @@
   </si>
   <si>
     <t>1/14（14个功能中的1个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -516,6 +532,31 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>42999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
+++ b/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,30 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作量统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建时序图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea注释模板设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释补充</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -534,7 +558,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>42999</v>
+        <v>43000</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -555,6 +579,64 @@
       </c>
       <c r="D6" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>43003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>43004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
+++ b/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,42 @@
   </si>
   <si>
     <t>注释补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉企业应用免登需求分析讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉企业应用免登技术方案设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉企业应用免登开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉企业应用免登调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉企业免登调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉企业免登完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作交接-钉钉企业应用免登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于29号、30号请假两天，将企业应用免登功能交接给李文光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,11 +225,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -498,17 +544,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.625" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="52.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -524,119 +570,265 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>42999</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>0.1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
+    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>43000</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>43003</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>0.8</v>
       </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>43004</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>0.8</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>43005</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>43006</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
+++ b/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,30 @@
   </si>
   <si>
     <t>由于29号、30号请假两天，将企业应用免登功能交接给李文光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉企业应用免登与SSO整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉企业应用免登与SSO整合环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉企业应用免登与SSO整合测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -240,6 +264,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -544,16 +570,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -829,6 +855,76 @@
       </c>
       <c r="E22" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>43017</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>43018</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <v>43019</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
+        <v>43020</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="6">
+        <v>43021</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
+++ b/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="9月" sheetId="1" r:id="rId1"/>
+    <sheet name="10月" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -22,6 +22,90 @@
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+有就写，没有可以不填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+备注：优先级高的是当天必须完成的事，优先级中可以完成部分，优先级低属于跟踪的事情</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+有就写，没有可以不填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +275,22 @@
   </si>
   <si>
     <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方客户端新增注销功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方客户端登录新增提示语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立刻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +328,28 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,7 +359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -245,27 +367,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -570,9 +792,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -580,352 +802,315 @@
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>42999</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="10">
         <v>0.1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
         <v>43000</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
         <v>43003</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="10">
         <v>0.8</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
         <v>43004</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="10">
         <v>0.8</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
         <v>43005</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="10">
         <v>0.5</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
         <v>43006</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
-        <v>43017</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
-        <v>43018</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="6">
-        <v>43019</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
-        <v>43020</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="6">
-        <v>43021</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -936,15 +1121,208 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="15">
+        <v>43017</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9">
+        <v>390</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="15">
+        <v>43018</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9">
+        <v>390</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="15">
+        <v>43019</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3">
+        <v>390</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
+        <v>43020</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3">
+        <v>390</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="15">
+        <v>43021</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="15">
+        <v>43024</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3">
+        <v>419</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3">
+        <v>412</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
+++ b/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,11 +286,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第三方客户端登录新增提示语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>立刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写UC-ADMIN用户手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心登录字段新增identityList字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAS客户端获取用户信息字段展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心同步用户身份方案分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理钉钉客户端应用免登无法跳转问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心同步用户身份代码部分实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1296,28 +1328,186 @@
         <v>419</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="15">
+        <v>43025</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="15">
+        <v>43026</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3">
+        <v>424</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3">
-        <v>412</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="15">
+        <v>43027</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3">
+        <v>424</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14"/>
+      <c r="E20" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="15">
+        <v>43028</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3">
+        <v>424</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
+++ b/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,22 @@
   </si>
   <si>
     <t>用户中心同步用户身份代码部分实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写发布检查表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心同步用户身份代码完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待部署到日常测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1154,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1166,7 +1182,7 @@
     <col min="2" max="2" width="35.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -1502,12 +1518,70 @@
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="15">
+        <v>43031</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
       <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3">
+        <v>424</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
+++ b/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,10 @@
   </si>
   <si>
     <t>待部署到日常测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心同步用户身份部署到日常测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,7 +1177,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1560,11 +1564,21 @@
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
+      <c r="A30" s="15">
+        <v>43032</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3">
+        <v>424</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">

--- a/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
+++ b/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,29 @@
   </si>
   <si>
     <t>用户中心同步用户身份部署到日常测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/20/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心业务逻辑交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心后台管理需求</t>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工同步功能待开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1590,17 +1613,52 @@
       <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
       <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="3">
+        <v>449</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="13"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
+++ b/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +366,30 @@
   </si>
   <si>
     <t>员工同步功能待开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/20/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉员工同步定时任务功能设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理用户列表筛选按钮修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心后台管理需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目会议及UML建模培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立刻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1197,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1631,7 +1655,7 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3">
         <v>449</v>
@@ -1647,12 +1671,106 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="3">
+        <v>449</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="3">
+        <v>449</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="3">
+        <v>449</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="15"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="15"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="13"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
+++ b/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,38 +358,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工同步功能待开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/20/26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉员工同步定时任务功能设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理用户列表筛选按钮修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用户中心后台管理需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目会议及UML建模培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/20/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心后台管理需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>员工同步功能待开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/20/26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钉钉员工同步定时任务功能设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台管理用户列表筛选按钮修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户中心后台管理需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目会议及UML建模培训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立刻</t>
+    <t>uc钉钉用户同步代码整合到sync项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync项目部署到日常并测试同步钉钉用户功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1221,16 +1238,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
@@ -1655,19 +1672,19 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="3">
         <v>449</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" s="4">
         <v>0.1</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1680,16 +1697,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C35" s="3">
         <v>449</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" s="4">
         <v>0.5</v>
@@ -1699,13 +1716,13 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="3">
         <v>449</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -1715,7 +1732,7 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="3">
         <v>449</v>
@@ -1729,11 +1746,11 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -1749,28 +1766,66 @@
       <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
+      <c r="A40" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="3">
+        <v>449</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
       <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="3">
+        <v>449</v>
+      </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
       <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="13"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="3">
+        <v>449</v>
+      </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
       <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="15"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="13"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
+++ b/交流管理/项目日报/牛锐胜-每日要做的事.xlsx
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
